--- a/data/pca/factorExposure/factorExposure_2017-11-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02519734301951193</v>
+        <v>-0.01430966847151961</v>
       </c>
       <c r="C2">
-        <v>0.0004911685380734025</v>
+        <v>-0.0382274050316215</v>
       </c>
       <c r="D2">
-        <v>0.005424960685180297</v>
+        <v>0.02832048668053236</v>
       </c>
       <c r="E2">
-        <v>0.01727794683054272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02801389974317615</v>
+      </c>
+      <c r="F2">
+        <v>0.03347567226613775</v>
+      </c>
+      <c r="G2">
+        <v>0.0135893295160365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01211169144823823</v>
+        <v>-0.05499299015763546</v>
       </c>
       <c r="C3">
-        <v>0.04730356601643389</v>
+        <v>-0.07824574175716691</v>
       </c>
       <c r="D3">
-        <v>-0.008043093771039952</v>
+        <v>0.01451036722563526</v>
       </c>
       <c r="E3">
-        <v>-0.03628700944853087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.0828586118027209</v>
+      </c>
+      <c r="F3">
+        <v>0.06097857812855131</v>
+      </c>
+      <c r="G3">
+        <v>0.07588946328476774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0237820377169343</v>
+        <v>-0.0554460880533067</v>
       </c>
       <c r="C4">
-        <v>0.03222525338756441</v>
+        <v>-0.06366192085805035</v>
       </c>
       <c r="D4">
-        <v>0.03966543486392887</v>
+        <v>0.02210944164217554</v>
       </c>
       <c r="E4">
-        <v>0.03465492637765151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0001733653106612774</v>
+      </c>
+      <c r="F4">
+        <v>0.01668065415978042</v>
+      </c>
+      <c r="G4">
+        <v>0.04066970565462288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01579743315934837</v>
+        <v>-0.03200572963967927</v>
       </c>
       <c r="C6">
-        <v>0.0517504296748345</v>
+        <v>-0.05436166772883846</v>
       </c>
       <c r="D6">
-        <v>0.03585965216514778</v>
+        <v>0.01626978310185703</v>
       </c>
       <c r="E6">
-        <v>0.05184948381116868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.006164051853749439</v>
+      </c>
+      <c r="F6">
+        <v>0.02048827010644117</v>
+      </c>
+      <c r="G6">
+        <v>0.02385423444062602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01256168153031413</v>
+        <v>-0.02006863036132431</v>
       </c>
       <c r="C7">
-        <v>0.02111032098252319</v>
+        <v>-0.0373777945567421</v>
       </c>
       <c r="D7">
-        <v>0.06221148275762574</v>
+        <v>0.01241204561144527</v>
       </c>
       <c r="E7">
-        <v>-0.03309720319799121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01309337752289978</v>
+      </c>
+      <c r="F7">
+        <v>0.01162060686825981</v>
+      </c>
+      <c r="G7">
+        <v>0.07611754324490562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001317289185116788</v>
+        <v>0.002908984611835424</v>
       </c>
       <c r="C8">
-        <v>-0.01824146597838903</v>
+        <v>-0.01456958927840258</v>
       </c>
       <c r="D8">
-        <v>0.02042690211876829</v>
+        <v>0.003873644583496765</v>
       </c>
       <c r="E8">
-        <v>0.01749527461763243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01764673057970334</v>
+      </c>
+      <c r="F8">
+        <v>0.02231011143512833</v>
+      </c>
+      <c r="G8">
+        <v>0.02681134398781236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.014843983907711</v>
+        <v>-0.02823583395803069</v>
       </c>
       <c r="C9">
-        <v>0.02388268890036939</v>
+        <v>-0.04274271677957715</v>
       </c>
       <c r="D9">
-        <v>0.02201082697311028</v>
+        <v>0.01537879902125686</v>
       </c>
       <c r="E9">
-        <v>0.01739772452574057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.004259389675021571</v>
+      </c>
+      <c r="F9">
+        <v>0.01920010041190087</v>
+      </c>
+      <c r="G9">
+        <v>0.03236980877028247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.01074245544114934</v>
+        <v>-0.08610920533603143</v>
       </c>
       <c r="C10">
-        <v>0.0827022725726974</v>
+        <v>0.1864038238102942</v>
       </c>
       <c r="D10">
-        <v>-0.08485445047008193</v>
+        <v>-0.01868602319219694</v>
       </c>
       <c r="E10">
-        <v>-0.1377844055264594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02132690722684388</v>
+      </c>
+      <c r="F10">
+        <v>-0.01486943477687661</v>
+      </c>
+      <c r="G10">
+        <v>0.03912008851558937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.000252962221057812</v>
+        <v>-0.03642410331098243</v>
       </c>
       <c r="C11">
-        <v>0.01768668437314848</v>
+        <v>-0.05245327822066763</v>
       </c>
       <c r="D11">
-        <v>0.01197528787422606</v>
+        <v>0.001200405116491592</v>
       </c>
       <c r="E11">
-        <v>0.03224628940704984</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.002254087125123069</v>
+      </c>
+      <c r="F11">
+        <v>0.02505035393565625</v>
+      </c>
+      <c r="G11">
+        <v>0.01358305242741693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005607500246226283</v>
+        <v>-0.03370046835942907</v>
       </c>
       <c r="C12">
-        <v>0.02766291985631559</v>
+        <v>-0.04444421538496168</v>
       </c>
       <c r="D12">
-        <v>0.01936612332325551</v>
+        <v>0.005366140902550457</v>
       </c>
       <c r="E12">
-        <v>0.03162643969132964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.00897545207651845</v>
+      </c>
+      <c r="F12">
+        <v>0.007334147252559872</v>
+      </c>
+      <c r="G12">
+        <v>0.01810237630787127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02231586785326239</v>
+        <v>-0.01084743413662534</v>
       </c>
       <c r="C13">
-        <v>0.008894644824400208</v>
+        <v>-0.03390650299048743</v>
       </c>
       <c r="D13">
-        <v>0.002275113376676805</v>
+        <v>0.02476894801072461</v>
       </c>
       <c r="E13">
-        <v>0.009377719410559739</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02278107687026864</v>
+      </c>
+      <c r="F13">
+        <v>0.02493537647151703</v>
+      </c>
+      <c r="G13">
+        <v>0.0288604920085001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007981821463717016</v>
+        <v>-0.006834240334684221</v>
       </c>
       <c r="C14">
-        <v>0.0117325767802329</v>
+        <v>-0.02536570728186575</v>
       </c>
       <c r="D14">
-        <v>0.01621387445365825</v>
+        <v>0.008537815323327223</v>
       </c>
       <c r="E14">
-        <v>-0.002001805307739979</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004378476962437459</v>
+      </c>
+      <c r="F14">
+        <v>0.00395499807204639</v>
+      </c>
+      <c r="G14">
+        <v>0.03752930123875974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0007882388034568306</v>
+        <v>-0.03307994505252627</v>
       </c>
       <c r="C16">
-        <v>0.02332864712898771</v>
+        <v>-0.04297426218833448</v>
       </c>
       <c r="D16">
-        <v>0.02072689550727033</v>
+        <v>0.0007919119124367814</v>
       </c>
       <c r="E16">
-        <v>0.03390908864598227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0001671292654167571</v>
+      </c>
+      <c r="F16">
+        <v>0.01093086931905274</v>
+      </c>
+      <c r="G16">
+        <v>0.01703187812222712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01312734924677064</v>
+        <v>-0.03074091455815777</v>
       </c>
       <c r="C19">
-        <v>0.01672424085599833</v>
+        <v>-0.05508588355270588</v>
       </c>
       <c r="D19">
-        <v>0.02024461187305777</v>
+        <v>0.01538433942505302</v>
       </c>
       <c r="E19">
-        <v>0.03131700615316729</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04109786415841032</v>
+      </c>
+      <c r="F19">
+        <v>0.03888168647902207</v>
+      </c>
+      <c r="G19">
+        <v>0.03634288770931868</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009162278345857108</v>
+        <v>-0.01091363502710469</v>
       </c>
       <c r="C20">
-        <v>0.002011716856671786</v>
+        <v>-0.03510179373364465</v>
       </c>
       <c r="D20">
-        <v>0.004468014486720685</v>
+        <v>0.01306349930465554</v>
       </c>
       <c r="E20">
-        <v>-0.001150938275792559</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02068544175720726</v>
+      </c>
+      <c r="F20">
+        <v>0.007178557094415863</v>
+      </c>
+      <c r="G20">
+        <v>0.02904783960293164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01609076737290133</v>
+        <v>-0.01232667899849982</v>
       </c>
       <c r="C21">
-        <v>0.0283030937362649</v>
+        <v>-0.03361957257261113</v>
       </c>
       <c r="D21">
-        <v>0.02260508839278455</v>
+        <v>0.01604634137253005</v>
       </c>
       <c r="E21">
-        <v>-0.002921410597524337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02831455925209965</v>
+      </c>
+      <c r="F21">
+        <v>0.02144265200842794</v>
+      </c>
+      <c r="G21">
+        <v>0.05104517482018742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004268204792473718</v>
+        <v>-0.02722696304609135</v>
       </c>
       <c r="C24">
-        <v>0.02123281442024509</v>
+        <v>-0.04582240023884462</v>
       </c>
       <c r="D24">
-        <v>0.01731280097775323</v>
+        <v>0.006247497736613224</v>
       </c>
       <c r="E24">
-        <v>0.03044934271575049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005764847752302953</v>
+      </c>
+      <c r="F24">
+        <v>0.02086383967634145</v>
+      </c>
+      <c r="G24">
+        <v>0.01664428016897586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01160247842291617</v>
+        <v>-0.04427484063852987</v>
       </c>
       <c r="C25">
-        <v>0.03322297454104036</v>
+        <v>-0.05207002653977637</v>
       </c>
       <c r="D25">
-        <v>0.01685474603614093</v>
+        <v>0.01004263213228632</v>
       </c>
       <c r="E25">
-        <v>0.03225444029454345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01253376162415935</v>
+      </c>
+      <c r="F25">
+        <v>0.01501055267526283</v>
+      </c>
+      <c r="G25">
+        <v>0.02332005291058637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02379011641012117</v>
+        <v>-0.007926623573730538</v>
       </c>
       <c r="C26">
-        <v>-4.905927787025496e-05</v>
+        <v>-0.008305774929259341</v>
       </c>
       <c r="D26">
-        <v>0.005681176752810918</v>
+        <v>0.02382261370157451</v>
       </c>
       <c r="E26">
-        <v>-0.007644430550674493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009488121864826891</v>
+      </c>
+      <c r="F26">
+        <v>0.006729008938053713</v>
+      </c>
+      <c r="G26">
+        <v>0.02703889179567153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.0244648298703254</v>
+        <v>-0.1081791129580711</v>
       </c>
       <c r="C28">
-        <v>0.1238671320779515</v>
+        <v>0.2293609245476196</v>
       </c>
       <c r="D28">
-        <v>-0.1264740629997201</v>
+        <v>-0.0100194788216364</v>
       </c>
       <c r="E28">
-        <v>-0.2059509543509477</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.009506474623926599</v>
+      </c>
+      <c r="F28">
+        <v>-0.006941143556536008</v>
+      </c>
+      <c r="G28">
+        <v>0.05448823303027303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008185444663364278</v>
+        <v>-0.01166806602518525</v>
       </c>
       <c r="C29">
-        <v>0.01407602131670684</v>
+        <v>-0.01877816286213373</v>
       </c>
       <c r="D29">
-        <v>0.01207407588544055</v>
+        <v>0.00732318246724206</v>
       </c>
       <c r="E29">
-        <v>-0.0007003204327444905</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001844140540913446</v>
+      </c>
+      <c r="F29">
+        <v>-0.004562487151458169</v>
+      </c>
+      <c r="G29">
+        <v>0.03194053455861013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02601605137715161</v>
+        <v>-0.04043423440533811</v>
       </c>
       <c r="C30">
-        <v>0.03207018347569494</v>
+        <v>-0.06997748300693887</v>
       </c>
       <c r="D30">
-        <v>-0.01322320231334329</v>
+        <v>0.02686036459529853</v>
       </c>
       <c r="E30">
-        <v>0.08386744549408442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02099501844438464</v>
+      </c>
+      <c r="F30">
+        <v>0.04652656904832504</v>
+      </c>
+      <c r="G30">
+        <v>-0.004794892965096734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.006016815548546942</v>
+        <v>-0.04310355053113373</v>
       </c>
       <c r="C31">
-        <v>0.04659414388524239</v>
+        <v>-0.0309246130455023</v>
       </c>
       <c r="D31">
-        <v>0.02093725504963768</v>
+        <v>0.003176079597965131</v>
       </c>
       <c r="E31">
-        <v>0.01265409572648519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0108370512788233</v>
+      </c>
+      <c r="F31">
+        <v>-0.03530825662664503</v>
+      </c>
+      <c r="G31">
+        <v>0.02783291851436777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006672063183290134</v>
+        <v>-0.003203928552700991</v>
       </c>
       <c r="C32">
-        <v>-0.003871103689527851</v>
+        <v>-0.03414438144411366</v>
       </c>
       <c r="D32">
-        <v>0.03528189922072009</v>
+        <v>-0.004605379921859171</v>
       </c>
       <c r="E32">
-        <v>0.008000439881495675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01389673725669732</v>
+      </c>
+      <c r="F32">
+        <v>0.07761791912981578</v>
+      </c>
+      <c r="G32">
+        <v>0.05159290852648362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01205707263816581</v>
+        <v>-0.02992890831221046</v>
       </c>
       <c r="C33">
-        <v>0.02733656268329591</v>
+        <v>-0.04965659645329396</v>
       </c>
       <c r="D33">
-        <v>-0.004958331478332466</v>
+        <v>0.01388041739454876</v>
       </c>
       <c r="E33">
-        <v>0.03423184233762731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01902344158058706</v>
+      </c>
+      <c r="F33">
+        <v>0.02691561583285941</v>
+      </c>
+      <c r="G33">
+        <v>0.02324487719016622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.006689877184357523</v>
+        <v>-0.04661945396384366</v>
       </c>
       <c r="C34">
-        <v>0.02903533257532138</v>
+        <v>-0.0534606708671708</v>
       </c>
       <c r="D34">
-        <v>0.02757926500593197</v>
+        <v>-0.005990395138603146</v>
       </c>
       <c r="E34">
-        <v>0.02985066064527881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01179667211976196</v>
+      </c>
+      <c r="F34">
+        <v>0.02286525987950901</v>
+      </c>
+      <c r="G34">
+        <v>0.02735235417353162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01186019317541472</v>
+        <v>-0.01139693093807981</v>
       </c>
       <c r="C36">
-        <v>0.0136310827712375</v>
+        <v>-0.006111028423646521</v>
       </c>
       <c r="D36">
-        <v>0.00239203287745782</v>
+        <v>0.01105017437278666</v>
       </c>
       <c r="E36">
-        <v>-0.003611740692176963</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0008746304259342195</v>
+      </c>
+      <c r="F36">
+        <v>-8.811577789375158e-05</v>
+      </c>
+      <c r="G36">
+        <v>0.01911477322746332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.00705418902117691</v>
+        <v>-0.03511270928901474</v>
       </c>
       <c r="C38">
-        <v>0.02799379002496389</v>
+        <v>-0.0237525383364986</v>
       </c>
       <c r="D38">
-        <v>0.007367711961367028</v>
+        <v>-0.008347401299249893</v>
       </c>
       <c r="E38">
-        <v>0.01750301262110467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003066777366392488</v>
+      </c>
+      <c r="F38">
+        <v>0.00157272215184416</v>
+      </c>
+      <c r="G38">
+        <v>0.02891561946570671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005314090625811887</v>
+        <v>-0.03282960185463737</v>
       </c>
       <c r="C39">
-        <v>0.01511048341556818</v>
+        <v>-0.08243357928917822</v>
       </c>
       <c r="D39">
-        <v>0.03883625746861502</v>
+        <v>0.0115501644737227</v>
       </c>
       <c r="E39">
-        <v>0.05856218733489067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.0104791183275114</v>
+      </c>
+      <c r="F39">
+        <v>0.04040211516541233</v>
+      </c>
+      <c r="G39">
+        <v>0.0183820089229842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01290597377654428</v>
+        <v>-0.02012192610104033</v>
       </c>
       <c r="C40">
-        <v>0.02485081465104173</v>
+        <v>-0.03071014070565752</v>
       </c>
       <c r="D40">
-        <v>0.01479903415618321</v>
+        <v>0.0129359583110557</v>
       </c>
       <c r="E40">
-        <v>0.03532036646312374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01656479936550478</v>
+      </c>
+      <c r="F40">
+        <v>0.0226244117685103</v>
+      </c>
+      <c r="G40">
+        <v>0.0200127049701249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004494697651835648</v>
+        <v>-0.01266287334497553</v>
       </c>
       <c r="C41">
-        <v>0.01478574187820353</v>
+        <v>0.00210573522315414</v>
       </c>
       <c r="D41">
-        <v>-0.00555705879248763</v>
+        <v>0.003345508207824612</v>
       </c>
       <c r="E41">
-        <v>-0.00831034277889975</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00283466490800045</v>
+      </c>
+      <c r="F41">
+        <v>0.001133907650998792</v>
+      </c>
+      <c r="G41">
+        <v>0.01337076445256045</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08599255408250064</v>
+        <v>-0.03462083436395692</v>
       </c>
       <c r="C42">
-        <v>0.1203875212135828</v>
+        <v>-0.05471103389904002</v>
       </c>
       <c r="D42">
-        <v>-0.04710116921835972</v>
+        <v>0.1019653187394184</v>
       </c>
       <c r="E42">
-        <v>0.1507034822151359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05962875054769867</v>
+      </c>
+      <c r="F42">
+        <v>-0.1112253598943692</v>
+      </c>
+      <c r="G42">
+        <v>-0.2004902746752517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007594678711801708</v>
+        <v>-0.02872722165009186</v>
       </c>
       <c r="C43">
-        <v>0.01192269001694593</v>
+        <v>-0.007045694301082587</v>
       </c>
       <c r="D43">
-        <v>-0.007625441157263917</v>
+        <v>0.003452601205139974</v>
       </c>
       <c r="E43">
-        <v>-0.00942717280994358</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0006495206187989643</v>
+      </c>
+      <c r="F43">
+        <v>0.001182524438708917</v>
+      </c>
+      <c r="G43">
+        <v>0.0167612955842145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003577473962113347</v>
+        <v>-0.0165528178576672</v>
       </c>
       <c r="C44">
-        <v>-0.0007199827120332952</v>
+        <v>-0.04689697735138595</v>
       </c>
       <c r="D44">
-        <v>0.01552210662341738</v>
+        <v>0.006557969173069939</v>
       </c>
       <c r="E44">
-        <v>0.003624023756433695</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01936648084741837</v>
+      </c>
+      <c r="F44">
+        <v>0.02765545521893211</v>
+      </c>
+      <c r="G44">
+        <v>0.0348151686763109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01098870050375672</v>
+        <v>-0.002313005795822008</v>
       </c>
       <c r="C46">
-        <v>0.007706177631676215</v>
+        <v>-0.01720860480278266</v>
       </c>
       <c r="D46">
-        <v>0.01331927056667709</v>
+        <v>0.01165475835749289</v>
       </c>
       <c r="E46">
-        <v>0.01759953649486947</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.002621568805541541</v>
+      </c>
+      <c r="F46">
+        <v>-0.007842696597949214</v>
+      </c>
+      <c r="G46">
+        <v>0.0236029547832786</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.001392859112177367</v>
+        <v>-0.07548755033544416</v>
       </c>
       <c r="C47">
-        <v>0.07187552581729528</v>
+        <v>-0.06233966786044943</v>
       </c>
       <c r="D47">
-        <v>0.01474747129414162</v>
+        <v>-0.005345826708433458</v>
       </c>
       <c r="E47">
-        <v>0.03083686317162169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0143037808843544</v>
+      </c>
+      <c r="F47">
+        <v>-0.06118795101450927</v>
+      </c>
+      <c r="G47">
+        <v>0.02240418393582645</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002379910819781798</v>
+        <v>-0.01916132236293889</v>
       </c>
       <c r="C48">
-        <v>0.02548624487763774</v>
+        <v>-0.01010836358485247</v>
       </c>
       <c r="D48">
-        <v>0.004423404126897175</v>
+        <v>0.0008972214048158038</v>
       </c>
       <c r="E48">
-        <v>0.0004756162372930257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002552731947751013</v>
+      </c>
+      <c r="F48">
+        <v>-0.01349155604528892</v>
+      </c>
+      <c r="G48">
+        <v>0.02566130076264161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.003019014277166998</v>
+        <v>-0.08047534347216566</v>
       </c>
       <c r="C50">
-        <v>0.06526275406598049</v>
+        <v>-0.06410798342298453</v>
       </c>
       <c r="D50">
-        <v>0.03951748257984058</v>
+        <v>-0.004151753254223531</v>
       </c>
       <c r="E50">
-        <v>0.02164926599142285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01322012074427347</v>
+      </c>
+      <c r="F50">
+        <v>-0.05565096576064395</v>
+      </c>
+      <c r="G50">
+        <v>0.04359321631678115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007160763183648822</v>
+        <v>-0.01353457485086347</v>
       </c>
       <c r="C51">
-        <v>-0.0006756498352027495</v>
+        <v>-0.02667684617748602</v>
       </c>
       <c r="D51">
-        <v>0.002307024924733996</v>
+        <v>0.008757083064036348</v>
       </c>
       <c r="E51">
-        <v>-0.02502796769473254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006382236485881267</v>
+      </c>
+      <c r="F51">
+        <v>0.03299717395598866</v>
+      </c>
+      <c r="G51">
+        <v>0.04648087753491796</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003380614480207879</v>
+        <v>-0.09690247268593233</v>
       </c>
       <c r="C53">
-        <v>0.1018408168395097</v>
+        <v>-0.07442545867160957</v>
       </c>
       <c r="D53">
-        <v>0.04723629457731549</v>
+        <v>-0.006159946939758226</v>
       </c>
       <c r="E53">
-        <v>0.06252027376705846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04053306537429401</v>
+      </c>
+      <c r="F53">
+        <v>-0.06491413237289381</v>
+      </c>
+      <c r="G53">
+        <v>0.02480831068635761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001310603718887015</v>
+        <v>-0.02881237906138944</v>
       </c>
       <c r="C54">
-        <v>0.0234352644327646</v>
+        <v>-0.003778436520608107</v>
       </c>
       <c r="D54">
-        <v>0.001261107079804877</v>
+        <v>-0.004152313452951214</v>
       </c>
       <c r="E54">
-        <v>-0.01298678586127771</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003650077717860232</v>
+      </c>
+      <c r="F54">
+        <v>-0.001073437396623612</v>
+      </c>
+      <c r="G54">
+        <v>0.0303560841407796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0006622877783389833</v>
+        <v>-0.07381068816922039</v>
       </c>
       <c r="C55">
-        <v>0.07836590746881082</v>
+        <v>-0.07025349254095559</v>
       </c>
       <c r="D55">
-        <v>0.03818739469838143</v>
+        <v>-0.004989665384458144</v>
       </c>
       <c r="E55">
-        <v>0.06869175756908283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02748682432298974</v>
+      </c>
+      <c r="F55">
+        <v>-0.06164899900805843</v>
+      </c>
+      <c r="G55">
+        <v>0.0119240232098612</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0008453938319809992</v>
+        <v>-0.1489155898038074</v>
       </c>
       <c r="C56">
-        <v>0.1487624084756263</v>
+        <v>-0.0962959711536166</v>
       </c>
       <c r="D56">
-        <v>0.04694037031618755</v>
+        <v>-0.01497548034873838</v>
       </c>
       <c r="E56">
-        <v>0.08764112204048187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04392899780654835</v>
+      </c>
+      <c r="F56">
+        <v>-0.1031847407762933</v>
+      </c>
+      <c r="G56">
+        <v>0.003597427219815214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02318687686042887</v>
+        <v>-0.01269199794498087</v>
       </c>
       <c r="C57">
-        <v>0.03503039663457704</v>
+        <v>-0.01162268903552936</v>
       </c>
       <c r="D57">
-        <v>0.006217458551589689</v>
+        <v>0.0237410841841135</v>
       </c>
       <c r="E57">
-        <v>0.02305031985536176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02860919419757343</v>
+      </c>
+      <c r="F57">
+        <v>0.0158269330563399</v>
+      </c>
+      <c r="G57">
+        <v>0.02240473235384167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.007291991549930559</v>
+        <v>-0.07042242100239383</v>
       </c>
       <c r="C58">
-        <v>0.09989406590929567</v>
+        <v>-0.07256597826072425</v>
       </c>
       <c r="D58">
-        <v>-0.1007644328452422</v>
+        <v>0.02111119290898589</v>
       </c>
       <c r="E58">
-        <v>0.09873970554905166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9431429021327062</v>
+      </c>
+      <c r="F58">
+        <v>-0.2313480049487265</v>
+      </c>
+      <c r="G58">
+        <v>0.06132810344745097</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02620742129119651</v>
+        <v>-0.1463971190421354</v>
       </c>
       <c r="C59">
-        <v>0.1250664123903835</v>
+        <v>0.2178371386013603</v>
       </c>
       <c r="D59">
-        <v>-0.1413665012161392</v>
+        <v>-0.01700276686258341</v>
       </c>
       <c r="E59">
-        <v>-0.174453546683311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01644899133567494</v>
+      </c>
+      <c r="F59">
+        <v>0.009819393300584815</v>
+      </c>
+      <c r="G59">
+        <v>0.01755219607984391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.03052810976834152</v>
+        <v>-0.2960127124190619</v>
       </c>
       <c r="C60">
-        <v>0.1946858679894042</v>
+        <v>-0.07616335193090445</v>
       </c>
       <c r="D60">
-        <v>-0.04493540193778397</v>
+        <v>0.007239895552020905</v>
       </c>
       <c r="E60">
-        <v>0.03738890047998902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02506489826595137</v>
+      </c>
+      <c r="F60">
+        <v>0.3822418493223183</v>
+      </c>
+      <c r="G60">
+        <v>-0.07613538223792213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002259328324915227</v>
+        <v>-0.03384353499375815</v>
       </c>
       <c r="C61">
-        <v>0.02837971453485169</v>
+        <v>-0.06244426316940357</v>
       </c>
       <c r="D61">
-        <v>0.02642972984103481</v>
+        <v>0.00486273788234024</v>
       </c>
       <c r="E61">
-        <v>0.04953341836600376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.006537315356333636</v>
+      </c>
+      <c r="F61">
+        <v>0.02565526171104381</v>
+      </c>
+      <c r="G61">
+        <v>0.01964014386101212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008180244889167451</v>
+        <v>-0.01568673083354625</v>
       </c>
       <c r="C63">
-        <v>0.01415076841681348</v>
+        <v>-0.02555058428395783</v>
       </c>
       <c r="D63">
-        <v>0.01311393039223181</v>
+        <v>0.007616385166211836</v>
       </c>
       <c r="E63">
-        <v>0.01218793837391421</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01208713336316527</v>
+      </c>
+      <c r="F63">
+        <v>-0.01047593936480063</v>
+      </c>
+      <c r="G63">
+        <v>0.02923922908757342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.005328004747583675</v>
+        <v>-0.04729400088425522</v>
       </c>
       <c r="C64">
-        <v>0.04373348843000156</v>
+        <v>-0.03459956341638744</v>
       </c>
       <c r="D64">
-        <v>0.01985676281092721</v>
+        <v>0.004504642186702432</v>
       </c>
       <c r="E64">
-        <v>0.03797933418420229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.009210316918727831</v>
+      </c>
+      <c r="F64">
+        <v>0.01437079652379461</v>
+      </c>
+      <c r="G64">
+        <v>0.01778577248600089</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01817689809480142</v>
+        <v>-0.08042716371363956</v>
       </c>
       <c r="C65">
-        <v>0.06342490463207176</v>
+        <v>-0.06574689841639021</v>
       </c>
       <c r="D65">
-        <v>0.03847768986291886</v>
+        <v>0.01521601736394552</v>
       </c>
       <c r="E65">
-        <v>0.05853873178994934</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.004891269479965035</v>
+      </c>
+      <c r="F65">
+        <v>0.04196723278570873</v>
+      </c>
+      <c r="G65">
+        <v>0.01091863652627634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0070706819411461</v>
+        <v>-0.05515653304672202</v>
       </c>
       <c r="C66">
-        <v>0.03558210335297614</v>
+        <v>-0.1143386437706985</v>
       </c>
       <c r="D66">
-        <v>0.03335839084760564</v>
+        <v>0.01070580541133247</v>
       </c>
       <c r="E66">
-        <v>0.08635898748651064</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01300322759632761</v>
+      </c>
+      <c r="F66">
+        <v>0.04865736135294887</v>
+      </c>
+      <c r="G66">
+        <v>0.009048050137640951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001743649246999887</v>
+        <v>-0.0595113058903218</v>
       </c>
       <c r="C67">
-        <v>0.04385836006058663</v>
+        <v>-0.02667509523244182</v>
       </c>
       <c r="D67">
-        <v>0.004075541873661793</v>
+        <v>-0.006994543136897386</v>
       </c>
       <c r="E67">
-        <v>0.01776986604956556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003976607852874753</v>
+      </c>
+      <c r="F67">
+        <v>0.0002011851226603361</v>
+      </c>
+      <c r="G67">
+        <v>0.02907413080610773</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.0414846830043857</v>
+        <v>-0.1251311759358381</v>
       </c>
       <c r="C68">
-        <v>0.1101931822921533</v>
+        <v>0.2732338431500503</v>
       </c>
       <c r="D68">
-        <v>-0.1370082707833287</v>
+        <v>0.001479596746827954</v>
       </c>
       <c r="E68">
-        <v>-0.1868518134129185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.02002025382533536</v>
+      </c>
+      <c r="F68">
+        <v>-0.01300053245716901</v>
+      </c>
+      <c r="G68">
+        <v>0.02067197663136172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003017153545607436</v>
+        <v>-0.0781190829188554</v>
       </c>
       <c r="C69">
-        <v>0.05837113055433422</v>
+        <v>-0.06135999983912107</v>
       </c>
       <c r="D69">
-        <v>0.0168611102378968</v>
+        <v>-0.009513895286721407</v>
       </c>
       <c r="E69">
-        <v>0.03157173831056141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03002391199670433</v>
+      </c>
+      <c r="F69">
+        <v>-0.04051590660831719</v>
+      </c>
+      <c r="G69">
+        <v>0.01968975147569693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02865598755097712</v>
+        <v>-0.1235066905504009</v>
       </c>
       <c r="C71">
-        <v>0.1033461093007679</v>
+        <v>0.2307432387324299</v>
       </c>
       <c r="D71">
-        <v>-0.1140088616559545</v>
+        <v>-0.007446852062046244</v>
       </c>
       <c r="E71">
-        <v>-0.1781368567567546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02625211712841264</v>
+      </c>
+      <c r="F71">
+        <v>-0.01780784174564396</v>
+      </c>
+      <c r="G71">
+        <v>0.0376600350437779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.004871867311171478</v>
+        <v>-0.08597229737651499</v>
       </c>
       <c r="C72">
-        <v>0.1192410282105301</v>
+        <v>-0.07658116773170666</v>
       </c>
       <c r="D72">
-        <v>0.03907738640817095</v>
+        <v>-0.008848646426584131</v>
       </c>
       <c r="E72">
-        <v>0.1134623084335046</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01059447131791289</v>
+      </c>
+      <c r="F72">
+        <v>0.04000850640008199</v>
+      </c>
+      <c r="G72">
+        <v>-0.002922080954567791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.03743899183938247</v>
+        <v>-0.4067818891656653</v>
       </c>
       <c r="C73">
-        <v>0.2426152568427477</v>
+        <v>-0.09411433752518551</v>
       </c>
       <c r="D73">
-        <v>-0.06498994612207827</v>
+        <v>0.01130296527565042</v>
       </c>
       <c r="E73">
-        <v>0.1176213727147578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06767531067910133</v>
+      </c>
+      <c r="F73">
+        <v>0.5317754249917443</v>
+      </c>
+      <c r="G73">
+        <v>-0.1379455689045662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.000111396814970555</v>
+        <v>-0.1190692645072367</v>
       </c>
       <c r="C74">
-        <v>0.1368553673672982</v>
+        <v>-0.1128483616654527</v>
       </c>
       <c r="D74">
-        <v>0.03688858856009752</v>
+        <v>-0.01112506686559694</v>
       </c>
       <c r="E74">
-        <v>0.08921104444640532</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03697020296505817</v>
+      </c>
+      <c r="F74">
+        <v>-0.07072269453795765</v>
+      </c>
+      <c r="G74">
+        <v>0.02170166140262863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0004761891531228792</v>
+        <v>-0.2649621277368653</v>
       </c>
       <c r="C75">
-        <v>0.2787561889695026</v>
+        <v>-0.1394103423633687</v>
       </c>
       <c r="D75">
-        <v>0.0601521351420168</v>
+        <v>-0.03264366736283336</v>
       </c>
       <c r="E75">
-        <v>0.1576361261712142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07717966725699194</v>
+      </c>
+      <c r="F75">
+        <v>-0.2162190259856083</v>
+      </c>
+      <c r="G75">
+        <v>-0.02300196258217091</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005838507279902863</v>
+        <v>-0.1408136541853112</v>
       </c>
       <c r="C76">
-        <v>0.2394867607711066</v>
+        <v>-0.1182057405507909</v>
       </c>
       <c r="D76">
-        <v>0.07856680407255359</v>
+        <v>-0.02272498208695564</v>
       </c>
       <c r="E76">
-        <v>0.1430143007916757</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07098327611773436</v>
+      </c>
+      <c r="F76">
+        <v>-0.1363905883596344</v>
+      </c>
+      <c r="G76">
+        <v>0.009467996283631246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01369852355768226</v>
+        <v>-0.06242774335478591</v>
       </c>
       <c r="C77">
-        <v>0.03803402823106247</v>
+        <v>-0.05999427853074228</v>
       </c>
       <c r="D77">
-        <v>0.03007152279227899</v>
+        <v>0.01201153503342191</v>
       </c>
       <c r="E77">
-        <v>0.05232618830408847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04167841605861484</v>
+      </c>
+      <c r="F77">
+        <v>0.02149687065574662</v>
+      </c>
+      <c r="G77">
+        <v>0.0446504245415704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006880883726180612</v>
+        <v>-0.04035525766301124</v>
       </c>
       <c r="C78">
-        <v>0.02875506505583018</v>
+        <v>-0.05033600355881369</v>
       </c>
       <c r="D78">
-        <v>0.02685445916316475</v>
+        <v>0.005369892422178667</v>
       </c>
       <c r="E78">
-        <v>0.03955800196521381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01790941719190435</v>
+      </c>
+      <c r="F78">
+        <v>0.04342088951157056</v>
+      </c>
+      <c r="G78">
+        <v>0.03166964530108731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01561348667526718</v>
+        <v>-0.06047023331777764</v>
       </c>
       <c r="C80">
-        <v>0.2100791083294553</v>
+        <v>-0.07113610802814337</v>
       </c>
       <c r="D80">
-        <v>0.8027145552072091</v>
+        <v>0.01355260660783491</v>
       </c>
       <c r="E80">
-        <v>-0.5076205661604347</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.07142390532261422</v>
+      </c>
+      <c r="F80">
+        <v>0.05189489918762154</v>
+      </c>
+      <c r="G80">
+        <v>0.9156969196255814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0008998312313578142</v>
+        <v>-0.1492345976607086</v>
       </c>
       <c r="C81">
-        <v>0.1905865898672724</v>
+        <v>-0.09117350898654376</v>
       </c>
       <c r="D81">
-        <v>0.04921580020361639</v>
+        <v>-0.01704226714725117</v>
       </c>
       <c r="E81">
-        <v>0.09884291893048663</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04801988942469506</v>
+      </c>
+      <c r="F81">
+        <v>-0.1387620368060792</v>
+      </c>
+      <c r="G81">
+        <v>0.01360952837508729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.04824121461295661</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.03263498440900837</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002652199264588015</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01750842282144735</v>
+      </c>
+      <c r="F82">
+        <v>-0.0009427060251645526</v>
+      </c>
+      <c r="G82">
+        <v>-0.006550389728416855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.005306623182886994</v>
+        <v>-0.02910984782392454</v>
       </c>
       <c r="C83">
-        <v>0.0303645213643765</v>
+        <v>-0.01925028900897095</v>
       </c>
       <c r="D83">
-        <v>0.001339620137586892</v>
+        <v>0.005119430454800882</v>
       </c>
       <c r="E83">
-        <v>0.01087043999854245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02641987042403168</v>
+      </c>
+      <c r="F83">
+        <v>0.02414994852859426</v>
+      </c>
+      <c r="G83">
+        <v>0.02728194802485458</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008620557581048098</v>
+        <v>-0.2408254899070978</v>
       </c>
       <c r="C85">
-        <v>0.2439017071292624</v>
+        <v>-0.1437950975339261</v>
       </c>
       <c r="D85">
-        <v>0.06402238380498808</v>
+        <v>-0.02120951886050566</v>
       </c>
       <c r="E85">
-        <v>0.1807375401666422</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1201679685887357</v>
+      </c>
+      <c r="F85">
+        <v>-0.2033263067680976</v>
+      </c>
+      <c r="G85">
+        <v>-0.04576516456882938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009202507922842575</v>
+        <v>-0.009678481444504474</v>
       </c>
       <c r="C86">
-        <v>-0.001199073572328136</v>
+        <v>-0.02409984030077092</v>
       </c>
       <c r="D86">
-        <v>0.01017645731642665</v>
+        <v>0.009718504865141631</v>
       </c>
       <c r="E86">
-        <v>0.008612710135151639</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02368412921335791</v>
+      </c>
+      <c r="F86">
+        <v>0.0212181034026812</v>
+      </c>
+      <c r="G86">
+        <v>0.05512144870517894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007473041854617759</v>
+        <v>-0.01614598827950214</v>
       </c>
       <c r="C87">
-        <v>0.01667563833777453</v>
+        <v>-0.02699545557942434</v>
       </c>
       <c r="D87">
-        <v>0.01514273677811094</v>
+        <v>0.01137936065582355</v>
       </c>
       <c r="E87">
-        <v>0.02077358385104553</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07825349554278382</v>
+      </c>
+      <c r="F87">
+        <v>0.06037737395372186</v>
+      </c>
+      <c r="G87">
+        <v>0.0393554179033125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.004723697536751279</v>
+        <v>-0.09077660407877025</v>
       </c>
       <c r="C88">
-        <v>0.05865073603983712</v>
+        <v>-0.05283631619530661</v>
       </c>
       <c r="D88">
-        <v>-0.004272259217883955</v>
+        <v>0.02089413306059556</v>
       </c>
       <c r="E88">
-        <v>0.01530866571953038</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.00518721258884571</v>
+      </c>
+      <c r="F88">
+        <v>-0.001791022785569728</v>
+      </c>
+      <c r="G88">
+        <v>0.02477278932026027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05841377547602798</v>
+        <v>-0.2114445100892588</v>
       </c>
       <c r="C89">
-        <v>0.2099809629579844</v>
+        <v>0.3745776083897643</v>
       </c>
       <c r="D89">
-        <v>-0.2459933255707886</v>
+        <v>-0.009167718188886688</v>
       </c>
       <c r="E89">
-        <v>-0.302740215064941</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.0116252893340773</v>
+      </c>
+      <c r="F89">
+        <v>-0.03325355817907478</v>
+      </c>
+      <c r="G89">
+        <v>0.02957182352927766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.04113580784909764</v>
+        <v>-0.1764234801089026</v>
       </c>
       <c r="C90">
-        <v>0.1284656526923076</v>
+        <v>0.3399341809870381</v>
       </c>
       <c r="D90">
-        <v>-0.2013894958791073</v>
+        <v>-0.01183324700535836</v>
       </c>
       <c r="E90">
-        <v>-0.2453958536515004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.005287261072856324</v>
+      </c>
+      <c r="F90">
+        <v>-0.04629091982835808</v>
+      </c>
+      <c r="G90">
+        <v>0.005059959755858983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0009882413730226505</v>
+        <v>-0.2147792648008993</v>
       </c>
       <c r="C91">
-        <v>0.2674460903304111</v>
+        <v>-0.1309779277681055</v>
       </c>
       <c r="D91">
-        <v>0.06768118623160513</v>
+        <v>-0.0259603883798553</v>
       </c>
       <c r="E91">
-        <v>0.1814326312580939</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08730090491221194</v>
+      </c>
+      <c r="F91">
+        <v>-0.1915272675192336</v>
+      </c>
+      <c r="G91">
+        <v>-0.006635124851980367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.006659508426934004</v>
+        <v>-0.2034032153288776</v>
       </c>
       <c r="C92">
-        <v>0.2816389001321407</v>
+        <v>0.2753359173776201</v>
       </c>
       <c r="D92">
-        <v>-0.1895619681478717</v>
+        <v>-0.05497862834154573</v>
       </c>
       <c r="E92">
-        <v>-0.2242976781450388</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.005650707143325153</v>
+      </c>
+      <c r="F92">
+        <v>-0.1346601666731418</v>
+      </c>
+      <c r="G92">
+        <v>0.06659678647035329</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.04218121314374728</v>
+        <v>-0.2018818048106374</v>
       </c>
       <c r="C93">
-        <v>0.1967749066882788</v>
+        <v>0.3361858914713435</v>
       </c>
       <c r="D93">
-        <v>-0.249110150339851</v>
+        <v>-0.01889436809499069</v>
       </c>
       <c r="E93">
-        <v>-0.2770960978879572</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01040916239473458</v>
+      </c>
+      <c r="F93">
+        <v>-0.01992439508765528</v>
+      </c>
+      <c r="G93">
+        <v>0.0008545752501035362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.0200813665722652</v>
+        <v>-0.2845106417549915</v>
       </c>
       <c r="C94">
-        <v>0.304558286670698</v>
+        <v>-0.1498354035870688</v>
       </c>
       <c r="D94">
-        <v>0.02158018739726425</v>
+        <v>-0.01452717797417823</v>
       </c>
       <c r="E94">
-        <v>0.1772591257086022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1017360493351555</v>
+      </c>
+      <c r="F94">
+        <v>-0.3970158640104979</v>
+      </c>
+      <c r="G94">
+        <v>-0.119594040595066</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.008378351365628724</v>
+        <v>-0.08503319737851672</v>
       </c>
       <c r="C95">
-        <v>0.08319637052387575</v>
+        <v>-0.07261133493226433</v>
       </c>
       <c r="D95">
-        <v>-0.06492910463426264</v>
+        <v>-0.008062941277359971</v>
       </c>
       <c r="E95">
-        <v>0.06033406541924449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.08072880870923468</v>
+      </c>
+      <c r="F95">
+        <v>0.1544373207812039</v>
+      </c>
+      <c r="G95">
+        <v>-0.07029784905607549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.001694877196172594</v>
+        <v>-0.2133422542089495</v>
       </c>
       <c r="C98">
-        <v>0.1996824203956161</v>
+        <v>-0.04195138792200023</v>
       </c>
       <c r="D98">
-        <v>-0.04663272878335067</v>
+        <v>-0.01769360826529057</v>
       </c>
       <c r="E98">
-        <v>0.05228687996938924</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06758424643931323</v>
+      </c>
+      <c r="F98">
+        <v>0.2401257447309268</v>
+      </c>
+      <c r="G98">
+        <v>-0.04117893084547881</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009522883833860345</v>
+        <v>-0.01295620510383212</v>
       </c>
       <c r="C101">
-        <v>0.023524075149041</v>
+        <v>-0.01977341582106002</v>
       </c>
       <c r="D101">
-        <v>0.004461823703816875</v>
+        <v>0.00854927970059707</v>
       </c>
       <c r="E101">
-        <v>0.005836248087673687</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03616254001855317</v>
+      </c>
+      <c r="F101">
+        <v>-0.02361561829328161</v>
+      </c>
+      <c r="G101">
+        <v>0.03976283017384877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01457585545569745</v>
+        <v>-0.1277097657525955</v>
       </c>
       <c r="C102">
-        <v>0.1432179025196919</v>
+        <v>-0.07877044308481347</v>
       </c>
       <c r="D102">
-        <v>0.02990561759710011</v>
+        <v>-0.0009904884814645224</v>
       </c>
       <c r="E102">
-        <v>0.08564761791754941</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04436228303334774</v>
+      </c>
+      <c r="F102">
+        <v>-0.06475755222089155</v>
+      </c>
+      <c r="G102">
+        <v>-0.01224658858805903</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002388322136733549</v>
+        <v>-0.005601663563697553</v>
       </c>
       <c r="C103">
-        <v>0.02913427639780896</v>
+        <v>-0.005428870863969436</v>
       </c>
       <c r="D103">
-        <v>0.02045441821237203</v>
+        <v>0.0003494960204211595</v>
       </c>
       <c r="E103">
-        <v>0.01397908429941487</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.001676690312634843</v>
+      </c>
+      <c r="F103">
+        <v>-0.008958099508697212</v>
+      </c>
+      <c r="G103">
+        <v>0.01440050032775751</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9855099443521358</v>
+        <v>-0.03999944598420953</v>
       </c>
       <c r="C104">
-        <v>-0.09256880098117515</v>
+        <v>0.04590683260351002</v>
       </c>
       <c r="D104">
-        <v>0.03998320701520663</v>
+        <v>0.985949082676121</v>
       </c>
       <c r="E104">
-        <v>0.0396623296368733</v>
+        <v>0.04532575703420088</v>
+      </c>
+      <c r="F104">
+        <v>-0.03878883015898925</v>
+      </c>
+      <c r="G104">
+        <v>-0.002258167609751938</v>
       </c>
     </row>
   </sheetData>
